--- a/StarWarsRatingsIMDB.xlsx
+++ b/StarWarsRatingsIMDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sklas\Desktop\Tableau Test\DataFam\Datafam Con\Star Wars\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://byu-my.sharepoint.com/personal/aam923_byu_edu/Documents/Fall 2023/STAT_251/ST251_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239D708B-E1A6-4A1E-92C1-1AC06E90F3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{239D708B-E1A6-4A1E-92C1-1AC06E90F3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{588AB193-06C5-0644-8355-A55299541607}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17360" yWindow="500" windowWidth="17340" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3748" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3767" uniqueCount="530">
   <si>
     <t>tconst</t>
   </si>
@@ -1036,30 +1036,6 @@
     <t>Action,Adventure,Drama</t>
   </si>
   <si>
-    <t>tt10300396</t>
-  </si>
-  <si>
-    <t>untitled taika waititi star wars film</t>
-  </si>
-  <si>
-    <t>Untitled Taika Waititi Star Wars Film</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>tt10300398</t>
-  </si>
-  <si>
-    <t>untitled star wars film</t>
-  </si>
-  <si>
-    <t>Untitled Star Wars Film</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
     <t>tt10799452</t>
   </si>
   <si>
@@ -1592,14 +1568,67 @@
   </si>
   <si>
     <t>135</t>
+  </si>
+  <si>
+    <t>obi-wan kenobi</t>
+  </si>
+  <si>
+    <t>Obi-Wan Kenobi</t>
+  </si>
+  <si>
+    <t>ahsoka</t>
+  </si>
+  <si>
+    <t>Ahsoka</t>
+  </si>
+  <si>
+    <t>andor</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>the mandalorian</t>
+  </si>
+  <si>
+    <t>The Mandalorian</t>
+  </si>
+  <si>
+    <t>the book of boba fett</t>
+  </si>
+  <si>
+    <t>The Book of Boba Fett</t>
+  </si>
+  <si>
+    <t>tt8111088</t>
+  </si>
+  <si>
+    <t>tt13622776</t>
+  </si>
+  <si>
+    <t>tt9253284</t>
+  </si>
+  <si>
+    <t>tt8466564</t>
+  </si>
+  <si>
+    <t>tt13668894</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1627,8 +1656,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1936,21 +1966,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V304"/>
+  <dimension ref="A1:V322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2086,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2130,7 +2160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2174,7 +2204,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2218,7 +2248,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2262,7 +2292,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2306,7 +2336,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2350,7 +2380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2394,7 +2424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2438,7 +2468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2482,7 +2512,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2526,7 +2556,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2570,7 +2600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2614,7 +2644,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2682,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -2726,7 +2756,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -2770,7 +2800,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -2814,7 +2844,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2858,7 +2888,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -2902,7 +2932,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -2946,7 +2976,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -2990,7 +3020,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -3034,7 +3064,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -3078,7 +3108,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -3122,7 +3152,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -3166,7 +3196,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -3210,7 +3240,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -3254,7 +3284,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -3298,7 +3328,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -3342,7 +3372,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -3386,7 +3416,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -3430,7 +3460,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -3474,7 +3504,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3518,7 +3548,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -3562,7 +3592,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -3606,7 +3636,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -3650,7 +3680,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -3694,7 +3724,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3738,7 +3768,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -3782,24 +3812,24 @@
         <v>467</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D41" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G41" t="s">
         <v>136</v>
@@ -3808,10 +3838,10 @@
         <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J41" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K41" t="s">
         <v>54</v>
@@ -3826,24 +3856,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D42" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G42" t="s">
         <v>136</v>
@@ -3852,10 +3882,10 @@
         <v>27</v>
       </c>
       <c r="I42" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J42" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
         <v>54</v>
@@ -3870,24 +3900,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D43" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G43" t="s">
         <v>136</v>
@@ -3896,10 +3926,10 @@
         <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K43" t="s">
         <v>54</v>
@@ -3914,24 +3944,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
       </c>
       <c r="C44" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D44" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G44" t="s">
         <v>136</v>
@@ -3940,10 +3970,10 @@
         <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J44" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s">
         <v>54</v>
@@ -3958,24 +3988,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D45" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G45" t="s">
         <v>136</v>
@@ -3984,10 +4014,10 @@
         <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J45" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K45" t="s">
         <v>54</v>
@@ -4002,24 +4032,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s">
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D46" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G46" t="s">
         <v>136</v>
@@ -4028,10 +4058,10 @@
         <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J46" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="K46" t="s">
         <v>54</v>
@@ -4046,24 +4076,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D47" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G47" t="s">
         <v>136</v>
@@ -4072,10 +4102,10 @@
         <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J47" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K47" t="s">
         <v>54</v>
@@ -4090,27 +4120,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D48" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G48" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H48" t="s">
         <v>177</v>
@@ -4119,7 +4149,7 @@
         <v>46</v>
       </c>
       <c r="J48" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K48" t="s">
         <v>61</v>
@@ -4134,24 +4164,24 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s">
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D49" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G49" t="s">
         <v>136</v>
@@ -4160,10 +4190,10 @@
         <v>27</v>
       </c>
       <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
         <v>349</v>
-      </c>
-      <c r="J49" t="s">
-        <v>357</v>
       </c>
       <c r="K49" t="s">
         <v>54</v>
@@ -4178,24 +4208,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s">
         <v>41</v>
       </c>
       <c r="C50" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D50" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -4204,10 +4234,10 @@
         <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J50" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K50" t="s">
         <v>54</v>
@@ -4216,24 +4246,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s">
         <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D51" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
@@ -4242,10 +4272,10 @@
         <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J51" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K51" t="s">
         <v>54</v>
@@ -4254,24 +4284,24 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s">
         <v>41</v>
       </c>
       <c r="C52" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D52" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
@@ -4280,10 +4310,10 @@
         <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J52" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="K52" t="s">
         <v>54</v>
@@ -4292,36 +4322,36 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>358</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" t="s">
+        <v>359</v>
+      </c>
+      <c r="D53" t="s">
+        <v>360</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" t="s">
         <v>366</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" t="s">
-        <v>367</v>
-      </c>
-      <c r="D53" t="s">
-        <v>368</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>369</v>
-      </c>
-      <c r="G53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" t="s">
-        <v>370</v>
-      </c>
-      <c r="J53" t="s">
-        <v>374</v>
       </c>
       <c r="K53" t="s">
         <v>54</v>
@@ -4330,36 +4360,36 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
+        <v>359</v>
+      </c>
+      <c r="D54" t="s">
+        <v>360</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>361</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>362</v>
+      </c>
+      <c r="J54" t="s">
         <v>367</v>
-      </c>
-      <c r="D54" t="s">
-        <v>368</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54" t="s">
-        <v>369</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s">
-        <v>27</v>
-      </c>
-      <c r="I54" t="s">
-        <v>370</v>
-      </c>
-      <c r="J54" t="s">
-        <v>375</v>
       </c>
       <c r="K54" t="s">
         <v>54</v>
@@ -4368,36 +4398,36 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D55" t="s">
+        <v>360</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>361</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>362</v>
+      </c>
+      <c r="J55" t="s">
         <v>368</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>369</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" t="s">
-        <v>370</v>
-      </c>
-      <c r="J55" t="s">
-        <v>376</v>
       </c>
       <c r="K55" t="s">
         <v>54</v>
@@ -4406,24 +4436,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B56" t="s">
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D56" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G56" t="s">
         <v>136</v>
@@ -4432,10 +4462,10 @@
         <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J56" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K56" t="s">
         <v>54</v>
@@ -4450,24 +4480,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G57" t="s">
         <v>136</v>
@@ -4476,10 +4506,10 @@
         <v>27</v>
       </c>
       <c r="I57" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J57" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="K57" t="s">
         <v>54</v>
@@ -4494,24 +4524,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D58" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G58" t="s">
         <v>136</v>
@@ -4520,10 +4550,10 @@
         <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J58" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K58" t="s">
         <v>54</v>
@@ -4538,24 +4568,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D59" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G59" t="s">
         <v>136</v>
@@ -4564,10 +4594,10 @@
         <v>27</v>
       </c>
       <c r="I59" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J59" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K59" t="s">
         <v>54</v>
@@ -4582,24 +4612,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s">
         <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D60" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G60" t="s">
         <v>136</v>
@@ -4608,10 +4638,10 @@
         <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J60" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K60" t="s">
         <v>54</v>
@@ -4626,27 +4656,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s">
         <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G61" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H61" t="s">
         <v>177</v>
@@ -4655,7 +4685,7 @@
         <v>46</v>
       </c>
       <c r="J61" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K61" t="s">
         <v>61</v>
@@ -4670,27 +4700,27 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s">
         <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D62" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G62" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H62" t="s">
         <v>177</v>
@@ -4699,7 +4729,7 @@
         <v>46</v>
       </c>
       <c r="J62" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="K62" t="s">
         <v>54</v>
@@ -4714,24 +4744,24 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D63" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G63" t="s">
         <v>136</v>
@@ -4740,10 +4770,10 @@
         <v>27</v>
       </c>
       <c r="I63" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J63" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K63" t="s">
         <v>54</v>
@@ -4758,24 +4788,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G64" t="s">
         <v>136</v>
@@ -4784,10 +4814,10 @@
         <v>27</v>
       </c>
       <c r="I64" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J64" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K64" t="s">
         <v>54</v>
@@ -4802,24 +4832,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s">
         <v>41</v>
       </c>
       <c r="C65" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D65" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G65" t="s">
         <v>136</v>
@@ -4828,10 +4858,10 @@
         <v>27</v>
       </c>
       <c r="I65" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J65" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K65" t="s">
         <v>54</v>
@@ -4846,24 +4876,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s">
         <v>41</v>
       </c>
       <c r="C66" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D66" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G66" t="s">
         <v>27</v>
@@ -4875,7 +4905,7 @@
         <v>46</v>
       </c>
       <c r="J66" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="K66" t="s">
         <v>54</v>
@@ -4890,13 +4920,13 @@
         <v>5452</v>
       </c>
       <c r="O66" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P66">
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="R66" t="s">
         <v>27</v>
@@ -4914,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -4982,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -5050,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -5118,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>132</v>
       </c>
@@ -5186,7 +5216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>132</v>
       </c>
@@ -5254,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -5322,7 +5352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -5390,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -5458,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -5526,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -5594,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>132</v>
       </c>
@@ -5662,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>132</v>
       </c>
@@ -5730,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>132</v>
       </c>
@@ -5798,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -5866,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>132</v>
       </c>
@@ -5934,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -6002,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>132</v>
       </c>
@@ -6070,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -6138,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>132</v>
       </c>
@@ -6206,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>132</v>
       </c>
@@ -6274,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>132</v>
       </c>
@@ -6342,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>132</v>
       </c>
@@ -6410,24 +6440,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B89" t="s">
         <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D89" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G89" t="s">
         <v>27</v>
@@ -6439,7 +6469,7 @@
         <v>46</v>
       </c>
       <c r="J89" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K89" t="s">
         <v>54</v>
@@ -6454,13 +6484,13 @@
         <v>3904</v>
       </c>
       <c r="O89" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P89">
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="R89" t="s">
         <v>51</v>
@@ -6478,36 +6508,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>369</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" t="s">
+        <v>370</v>
+      </c>
+      <c r="D90" t="s">
+        <v>371</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>372</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s">
+        <v>46</v>
+      </c>
+      <c r="J90" t="s">
         <v>377</v>
-      </c>
-      <c r="B90" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" t="s">
-        <v>378</v>
-      </c>
-      <c r="D90" t="s">
-        <v>379</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>380</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" t="s">
-        <v>27</v>
-      </c>
-      <c r="I90" t="s">
-        <v>46</v>
-      </c>
-      <c r="J90" t="s">
-        <v>385</v>
       </c>
       <c r="K90" t="s">
         <v>54</v>
@@ -6522,13 +6552,13 @@
         <v>3333</v>
       </c>
       <c r="O90" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P90">
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="R90" t="s">
         <v>51</v>
@@ -6546,36 +6576,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B91" t="s">
         <v>41</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D91" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>372</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>27</v>
+      </c>
+      <c r="I91" t="s">
+        <v>46</v>
+      </c>
+      <c r="J91" t="s">
         <v>379</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91" t="s">
-        <v>380</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" t="s">
-        <v>27</v>
-      </c>
-      <c r="I91" t="s">
-        <v>46</v>
-      </c>
-      <c r="J91" t="s">
-        <v>387</v>
       </c>
       <c r="K91" t="s">
         <v>54</v>
@@ -6590,13 +6620,13 @@
         <v>2826</v>
       </c>
       <c r="O91" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P91">
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="R91" t="s">
         <v>51</v>
@@ -6614,24 +6644,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D92" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G92" t="s">
         <v>27</v>
@@ -6643,7 +6673,7 @@
         <v>46</v>
       </c>
       <c r="J92" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K92" t="s">
         <v>54</v>
@@ -6658,13 +6688,13 @@
         <v>3003</v>
       </c>
       <c r="O92" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="P92">
         <v>1</v>
       </c>
       <c r="Q92" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="R92" t="s">
         <v>51</v>
@@ -6682,24 +6712,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D93" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G93" t="s">
         <v>27</v>
@@ -6711,7 +6741,7 @@
         <v>46</v>
       </c>
       <c r="J93" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="K93" t="s">
         <v>54</v>
@@ -6726,13 +6756,13 @@
         <v>2997</v>
       </c>
       <c r="O93" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P93">
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="R93" t="s">
         <v>51</v>
@@ -6750,24 +6780,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D94" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G94" t="s">
         <v>27</v>
@@ -6779,7 +6809,7 @@
         <v>46</v>
       </c>
       <c r="J94" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K94" t="s">
         <v>54</v>
@@ -6794,13 +6824,13 @@
         <v>2815</v>
       </c>
       <c r="O94" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="P94">
         <v>1</v>
       </c>
       <c r="Q94" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="R94" t="s">
         <v>51</v>
@@ -6818,24 +6848,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B95" t="s">
         <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D95" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G95" t="s">
         <v>27</v>
@@ -6847,7 +6877,7 @@
         <v>46</v>
       </c>
       <c r="J95" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K95" t="s">
         <v>54</v>
@@ -6862,13 +6892,13 @@
         <v>2376</v>
       </c>
       <c r="O95" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P95">
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="R95" t="s">
         <v>51</v>
@@ -6886,24 +6916,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B96" t="s">
         <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D96" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G96" t="s">
         <v>27</v>
@@ -6915,7 +6945,7 @@
         <v>46</v>
       </c>
       <c r="J96" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K96" t="s">
         <v>54</v>
@@ -6930,13 +6960,13 @@
         <v>2578</v>
       </c>
       <c r="O96" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P96">
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="R96" t="s">
         <v>51</v>
@@ -6954,24 +6984,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B97" t="s">
         <v>41</v>
       </c>
       <c r="C97" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D97" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G97" t="s">
         <v>27</v>
@@ -6983,7 +7013,7 @@
         <v>46</v>
       </c>
       <c r="J97" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="K97" t="s">
         <v>54</v>
@@ -6998,13 +7028,13 @@
         <v>3073</v>
       </c>
       <c r="O97" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P97">
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="R97" t="s">
         <v>51</v>
@@ -7022,24 +7052,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B98" t="s">
         <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D98" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G98" t="s">
         <v>27</v>
@@ -7051,7 +7081,7 @@
         <v>46</v>
       </c>
       <c r="J98" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K98" t="s">
         <v>54</v>
@@ -7066,13 +7096,13 @@
         <v>2506</v>
       </c>
       <c r="O98" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P98">
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="R98" t="s">
         <v>51</v>
@@ -7090,24 +7120,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B99" t="s">
         <v>41</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D99" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G99" t="s">
         <v>27</v>
@@ -7119,7 +7149,7 @@
         <v>46</v>
       </c>
       <c r="J99" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="K99" t="s">
         <v>54</v>
@@ -7134,13 +7164,13 @@
         <v>2279</v>
       </c>
       <c r="O99" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P99">
         <v>1</v>
       </c>
       <c r="Q99" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="R99" t="s">
         <v>51</v>
@@ -7158,24 +7188,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B100" t="s">
         <v>41</v>
       </c>
       <c r="C100" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D100" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G100" t="s">
         <v>27</v>
@@ -7187,7 +7217,7 @@
         <v>46</v>
       </c>
       <c r="J100" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="K100" t="s">
         <v>54</v>
@@ -7202,13 +7232,13 @@
         <v>2281</v>
       </c>
       <c r="O100" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="P100">
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="R100" t="s">
         <v>51</v>
@@ -7226,24 +7256,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D101" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G101" t="s">
         <v>27</v>
@@ -7255,7 +7285,7 @@
         <v>46</v>
       </c>
       <c r="J101" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="K101" t="s">
         <v>54</v>
@@ -7270,13 +7300,13 @@
         <v>2214</v>
       </c>
       <c r="O101" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P101">
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="R101" t="s">
         <v>51</v>
@@ -7294,24 +7324,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B102" t="s">
         <v>41</v>
       </c>
       <c r="C102" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D102" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G102" t="s">
         <v>27</v>
@@ -7323,7 +7353,7 @@
         <v>46</v>
       </c>
       <c r="J102" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="K102" t="s">
         <v>54</v>
@@ -7338,13 +7368,13 @@
         <v>2472</v>
       </c>
       <c r="O102" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P102">
         <v>1</v>
       </c>
       <c r="Q102" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="R102" t="s">
         <v>51</v>
@@ -7362,24 +7392,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B103" t="s">
         <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D103" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G103" t="s">
         <v>27</v>
@@ -7391,7 +7421,7 @@
         <v>46</v>
       </c>
       <c r="J103" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="K103" t="s">
         <v>54</v>
@@ -7406,13 +7436,13 @@
         <v>2115</v>
       </c>
       <c r="O103" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P103">
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="R103" t="s">
         <v>51</v>
@@ -7430,27 +7460,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B104" t="s">
         <v>41</v>
       </c>
       <c r="C104" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D104" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G104" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H104" t="s">
         <v>177</v>
@@ -7459,7 +7489,7 @@
         <v>46</v>
       </c>
       <c r="J104" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K104" t="s">
         <v>77</v>
@@ -7474,7 +7504,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>132</v>
       </c>
@@ -7542,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -7610,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -7678,24 +7708,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B108" t="s">
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D108" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G108" t="s">
         <v>27</v>
@@ -7707,7 +7737,7 @@
         <v>46</v>
       </c>
       <c r="J108" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="K108" t="s">
         <v>61</v>
@@ -7722,19 +7752,19 @@
         <v>26772</v>
       </c>
       <c r="O108" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P108">
         <v>7</v>
       </c>
       <c r="Q108" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="R108" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="S108" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="T108" t="s">
         <v>27</v>
@@ -7746,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>132</v>
       </c>
@@ -7814,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>132</v>
       </c>
@@ -7882,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>132</v>
       </c>
@@ -7950,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -7994,7 +8024,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -8038,7 +8068,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>132</v>
       </c>
@@ -8082,7 +8112,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>132</v>
       </c>
@@ -8150,7 +8180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -8218,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -8286,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>132</v>
       </c>
@@ -8354,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -8422,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -8490,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -8558,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>132</v>
       </c>
@@ -8626,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>132</v>
       </c>
@@ -8694,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>132</v>
       </c>
@@ -8762,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -8830,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -8898,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -8966,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -9010,7 +9040,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -9054,7 +9084,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -9098,7 +9128,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -9142,7 +9172,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -9186,7 +9216,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -9230,7 +9260,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -9274,7 +9304,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -9318,7 +9348,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>132</v>
       </c>
@@ -9362,7 +9392,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -9406,7 +9436,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -9450,7 +9480,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -9494,7 +9524,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -9538,7 +9568,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -9582,7 +9612,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>132</v>
       </c>
@@ -9626,7 +9656,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>132</v>
       </c>
@@ -9670,7 +9700,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -9714,7 +9744,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>132</v>
       </c>
@@ -9758,7 +9788,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>132</v>
       </c>
@@ -9802,7 +9832,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>132</v>
       </c>
@@ -9846,7 +9876,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>132</v>
       </c>
@@ -9890,7 +9920,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>132</v>
       </c>
@@ -9934,7 +9964,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>132</v>
       </c>
@@ -9978,7 +10008,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>132</v>
       </c>
@@ -10022,7 +10052,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>132</v>
       </c>
@@ -10066,7 +10096,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>132</v>
       </c>
@@ -10110,7 +10140,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>132</v>
       </c>
@@ -10154,7 +10184,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>132</v>
       </c>
@@ -10198,7 +10228,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>132</v>
       </c>
@@ -10242,7 +10272,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -10286,7 +10316,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>132</v>
       </c>
@@ -10330,7 +10360,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>132</v>
       </c>
@@ -10374,7 +10404,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>132</v>
       </c>
@@ -10418,7 +10448,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>132</v>
       </c>
@@ -10462,7 +10492,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>132</v>
       </c>
@@ -10506,7 +10536,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>132</v>
       </c>
@@ -10550,7 +10580,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -10594,7 +10624,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>132</v>
       </c>
@@ -10638,7 +10668,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>132</v>
       </c>
@@ -10682,7 +10712,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>132</v>
       </c>
@@ -10726,7 +10756,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -10770,7 +10800,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>132</v>
       </c>
@@ -10814,7 +10844,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>132</v>
       </c>
@@ -10858,7 +10888,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>132</v>
       </c>
@@ -10902,7 +10932,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -10946,7 +10976,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>132</v>
       </c>
@@ -10990,7 +11020,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>132</v>
       </c>
@@ -11034,7 +11064,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>132</v>
       </c>
@@ -11078,7 +11108,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -11122,7 +11152,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>132</v>
       </c>
@@ -11166,7 +11196,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>132</v>
       </c>
@@ -11210,7 +11240,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>132</v>
       </c>
@@ -11254,7 +11284,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>132</v>
       </c>
@@ -11298,7 +11328,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>132</v>
       </c>
@@ -11342,7 +11372,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>132</v>
       </c>
@@ -11386,7 +11416,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>132</v>
       </c>
@@ -11430,7 +11460,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>132</v>
       </c>
@@ -11474,7 +11504,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>132</v>
       </c>
@@ -11518,7 +11548,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>132</v>
       </c>
@@ -11562,7 +11592,7 @@
         <v>4935</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>132</v>
       </c>
@@ -11606,7 +11636,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>132</v>
       </c>
@@ -11650,7 +11680,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>132</v>
       </c>
@@ -11694,7 +11724,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>132</v>
       </c>
@@ -11738,7 +11768,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>132</v>
       </c>
@@ -11782,7 +11812,7 @@
         <v>4647</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>132</v>
       </c>
@@ -11826,7 +11856,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>132</v>
       </c>
@@ -11870,7 +11900,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>132</v>
       </c>
@@ -11914,7 +11944,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>132</v>
       </c>
@@ -11958,7 +11988,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -12002,7 +12032,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>132</v>
       </c>
@@ -12046,7 +12076,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>132</v>
       </c>
@@ -12090,7 +12120,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>132</v>
       </c>
@@ -12134,7 +12164,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>132</v>
       </c>
@@ -12178,7 +12208,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>132</v>
       </c>
@@ -12222,7 +12252,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>132</v>
       </c>
@@ -12266,7 +12296,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>132</v>
       </c>
@@ -12310,7 +12340,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>132</v>
       </c>
@@ -12354,27 +12384,27 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B205" t="s">
         <v>41</v>
       </c>
       <c r="C205" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D205" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G205" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H205" t="s">
         <v>177</v>
@@ -12383,7 +12413,7 @@
         <v>46</v>
       </c>
       <c r="J205" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="K205" t="s">
         <v>54</v>
@@ -12398,27 +12428,27 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B206" t="s">
         <v>41</v>
       </c>
       <c r="C206" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D206" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
       <c r="F206" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G206" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H206" t="s">
         <v>177</v>
@@ -12427,7 +12457,7 @@
         <v>46</v>
       </c>
       <c r="J206" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K206" t="s">
         <v>27</v>
@@ -12442,27 +12472,27 @@
         <v>505</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B207" t="s">
         <v>41</v>
       </c>
       <c r="C207" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D207" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E207">
         <v>0</v>
       </c>
       <c r="F207" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G207" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H207" t="s">
         <v>177</v>
@@ -12471,7 +12501,7 @@
         <v>46</v>
       </c>
       <c r="J207" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="K207" t="s">
         <v>27</v>
@@ -12486,27 +12516,27 @@
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B208" t="s">
         <v>41</v>
       </c>
       <c r="C208" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D208" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
       <c r="F208" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G208" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H208" t="s">
         <v>177</v>
@@ -12515,7 +12545,7 @@
         <v>46</v>
       </c>
       <c r="J208" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K208" t="s">
         <v>27</v>
@@ -12530,27 +12560,27 @@
         <v>477</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B209" t="s">
         <v>41</v>
       </c>
       <c r="C209" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D209" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
       <c r="F209" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G209" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H209" t="s">
         <v>177</v>
@@ -12559,7 +12589,7 @@
         <v>46</v>
       </c>
       <c r="J209" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="K209" t="s">
         <v>27</v>
@@ -12574,27 +12604,27 @@
         <v>473</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B210" t="s">
         <v>41</v>
       </c>
       <c r="C210" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D210" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
       <c r="F210" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G210" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H210" t="s">
         <v>177</v>
@@ -12603,7 +12633,7 @@
         <v>46</v>
       </c>
       <c r="J210" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K210" t="s">
         <v>54</v>
@@ -12618,27 +12648,27 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B211" t="s">
         <v>41</v>
       </c>
       <c r="C211" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D211" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E211">
         <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G211" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H211" t="s">
         <v>177</v>
@@ -12647,7 +12677,7 @@
         <v>46</v>
       </c>
       <c r="J211" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="K211" t="s">
         <v>54</v>
@@ -12662,27 +12692,27 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B212" t="s">
         <v>41</v>
       </c>
       <c r="C212" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D212" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G212" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H212" t="s">
         <v>177</v>
@@ -12691,7 +12721,7 @@
         <v>46</v>
       </c>
       <c r="J212" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="K212" t="s">
         <v>54</v>
@@ -12706,27 +12736,27 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s">
         <v>41</v>
       </c>
       <c r="C213" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D213" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G213" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H213" t="s">
         <v>177</v>
@@ -12735,7 +12765,7 @@
         <v>46</v>
       </c>
       <c r="J213" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K213" t="s">
         <v>54</v>
@@ -12750,27 +12780,27 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B214" t="s">
         <v>41</v>
       </c>
       <c r="C214" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D214" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G214" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H214" t="s">
         <v>177</v>
@@ -12779,7 +12809,7 @@
         <v>46</v>
       </c>
       <c r="J214" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="K214" t="s">
         <v>54</v>
@@ -12794,27 +12824,27 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
         <v>41</v>
       </c>
       <c r="C215" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D215" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="F215" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G215" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H215" t="s">
         <v>177</v>
@@ -12823,7 +12853,7 @@
         <v>46</v>
       </c>
       <c r="J215" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K215" t="s">
         <v>54</v>
@@ -12838,27 +12868,27 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B216" t="s">
         <v>41</v>
       </c>
       <c r="C216" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D216" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
       <c r="F216" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G216" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H216" t="s">
         <v>177</v>
@@ -12867,7 +12897,7 @@
         <v>46</v>
       </c>
       <c r="J216" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K216" t="s">
         <v>54</v>
@@ -12882,27 +12912,27 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B217" t="s">
         <v>41</v>
       </c>
       <c r="C217" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D217" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="F217" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G217" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H217" t="s">
         <v>177</v>
@@ -12911,7 +12941,7 @@
         <v>46</v>
       </c>
       <c r="J217" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="K217" t="s">
         <v>54</v>
@@ -12926,27 +12956,27 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B218" t="s">
         <v>41</v>
       </c>
       <c r="C218" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D218" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E218">
         <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G218" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H218" t="s">
         <v>177</v>
@@ -12955,7 +12985,7 @@
         <v>46</v>
       </c>
       <c r="J218" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K218" t="s">
         <v>54</v>
@@ -12970,27 +13000,27 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B219" t="s">
         <v>41</v>
       </c>
       <c r="C219" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D219" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G219" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H219" t="s">
         <v>177</v>
@@ -12999,7 +13029,7 @@
         <v>46</v>
       </c>
       <c r="J219" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K219" t="s">
         <v>54</v>
@@ -13014,27 +13044,27 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B220" t="s">
         <v>41</v>
       </c>
       <c r="C220" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D220" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G220" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H220" t="s">
         <v>177</v>
@@ -13043,7 +13073,7 @@
         <v>46</v>
       </c>
       <c r="J220" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="K220" t="s">
         <v>54</v>
@@ -13058,27 +13088,27 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B221" t="s">
         <v>41</v>
       </c>
       <c r="C221" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D221" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G221" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H221" t="s">
         <v>177</v>
@@ -13087,7 +13117,7 @@
         <v>46</v>
       </c>
       <c r="J221" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K221" t="s">
         <v>54</v>
@@ -13102,27 +13132,27 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B222" t="s">
         <v>41</v>
       </c>
       <c r="C222" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D222" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G222" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H222" t="s">
         <v>177</v>
@@ -13131,7 +13161,7 @@
         <v>46</v>
       </c>
       <c r="J222" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K222" t="s">
         <v>61</v>
@@ -13146,27 +13176,27 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B223" t="s">
         <v>41</v>
       </c>
       <c r="C223" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D223" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G223" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H223" t="s">
         <v>177</v>
@@ -13175,7 +13205,7 @@
         <v>46</v>
       </c>
       <c r="J223" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K223" t="s">
         <v>61</v>
@@ -13190,7 +13220,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>132</v>
       </c>
@@ -13258,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>132</v>
       </c>
@@ -13326,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>132</v>
       </c>
@@ -13394,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>132</v>
       </c>
@@ -13462,27 +13492,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B228" t="s">
         <v>41</v>
       </c>
       <c r="C228" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D228" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
       <c r="F228" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G228" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H228" t="s">
         <v>177</v>
@@ -13491,7 +13521,7 @@
         <v>46</v>
       </c>
       <c r="J228" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="K228" t="s">
         <v>61</v>
@@ -13506,27 +13536,27 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B229" t="s">
         <v>41</v>
       </c>
       <c r="C229" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D229" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G229" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H229" t="s">
         <v>177</v>
@@ -13535,7 +13565,7 @@
         <v>46</v>
       </c>
       <c r="J229" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="K229" t="s">
         <v>61</v>
@@ -13550,27 +13580,27 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B230" t="s">
         <v>41</v>
       </c>
       <c r="C230" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D230" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E230">
         <v>0</v>
       </c>
       <c r="F230" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G230" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H230" t="s">
         <v>177</v>
@@ -13579,7 +13609,7 @@
         <v>46</v>
       </c>
       <c r="J230" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="K230" t="s">
         <v>61</v>
@@ -13594,27 +13624,27 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B231" t="s">
         <v>41</v>
       </c>
       <c r="C231" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D231" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
       <c r="F231" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G231" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H231" t="s">
         <v>177</v>
@@ -13623,7 +13653,7 @@
         <v>46</v>
       </c>
       <c r="J231" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="K231" t="s">
         <v>61</v>
@@ -13638,27 +13668,27 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B232" t="s">
         <v>41</v>
       </c>
       <c r="C232" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D232" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E232">
         <v>0</v>
       </c>
       <c r="F232" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G232" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H232" t="s">
         <v>177</v>
@@ -13667,7 +13697,7 @@
         <v>46</v>
       </c>
       <c r="J232" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K232" t="s">
         <v>61</v>
@@ -13682,27 +13712,27 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="233" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B233" t="s">
         <v>41</v>
       </c>
       <c r="C233" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D233" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
       <c r="F233" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G233" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H233" t="s">
         <v>177</v>
@@ -13711,7 +13741,7 @@
         <v>46</v>
       </c>
       <c r="J233" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K233" t="s">
         <v>61</v>
@@ -13726,27 +13756,27 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B234" t="s">
         <v>41</v>
       </c>
       <c r="C234" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D234" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
       <c r="F234" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G234" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H234" t="s">
         <v>177</v>
@@ -13755,7 +13785,7 @@
         <v>46</v>
       </c>
       <c r="J234" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K234" t="s">
         <v>61</v>
@@ -13770,27 +13800,27 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="235" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B235" t="s">
         <v>41</v>
       </c>
       <c r="C235" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D235" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
       <c r="F235" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G235" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H235" t="s">
         <v>177</v>
@@ -13799,7 +13829,7 @@
         <v>46</v>
       </c>
       <c r="J235" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K235" t="s">
         <v>61</v>
@@ -13814,13 +13844,13 @@
         <v>1521</v>
       </c>
       <c r="O235" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P235">
         <v>2</v>
       </c>
       <c r="Q235" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="R235" t="s">
         <v>27</v>
@@ -13838,27 +13868,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B236" t="s">
         <v>41</v>
       </c>
       <c r="C236" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D236" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E236">
         <v>0</v>
       </c>
       <c r="F236" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G236" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H236" t="s">
         <v>177</v>
@@ -13867,7 +13897,7 @@
         <v>46</v>
       </c>
       <c r="J236" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K236" t="s">
         <v>61</v>
@@ -13882,27 +13912,27 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="237" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B237" t="s">
         <v>41</v>
       </c>
       <c r="C237" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D237" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E237">
         <v>0</v>
       </c>
       <c r="F237" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G237" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H237" t="s">
         <v>177</v>
@@ -13911,7 +13941,7 @@
         <v>46</v>
       </c>
       <c r="J237" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K237" t="s">
         <v>61</v>
@@ -13926,27 +13956,27 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B238" t="s">
         <v>41</v>
       </c>
       <c r="C238" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D238" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
       <c r="F238" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G238" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H238" t="s">
         <v>177</v>
@@ -13955,7 +13985,7 @@
         <v>46</v>
       </c>
       <c r="J238" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K238" t="s">
         <v>61</v>
@@ -13970,27 +14000,27 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B239" t="s">
         <v>41</v>
       </c>
       <c r="C239" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D239" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G239" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H239" t="s">
         <v>177</v>
@@ -13999,7 +14029,7 @@
         <v>46</v>
       </c>
       <c r="J239" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K239" t="s">
         <v>61</v>
@@ -14014,27 +14044,27 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="240" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B240" t="s">
         <v>41</v>
       </c>
       <c r="C240" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D240" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
       <c r="F240" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G240" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H240" t="s">
         <v>177</v>
@@ -14043,7 +14073,7 @@
         <v>46</v>
       </c>
       <c r="J240" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K240" t="s">
         <v>61</v>
@@ -14058,27 +14088,27 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B241" t="s">
         <v>41</v>
       </c>
       <c r="C241" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D241" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E241">
         <v>0</v>
       </c>
       <c r="F241" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G241" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H241" t="s">
         <v>177</v>
@@ -14087,7 +14117,7 @@
         <v>46</v>
       </c>
       <c r="J241" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="K241" t="s">
         <v>61</v>
@@ -14102,27 +14132,27 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B242" t="s">
         <v>41</v>
       </c>
       <c r="C242" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D242" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
       <c r="F242" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G242" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H242" t="s">
         <v>177</v>
@@ -14131,7 +14161,7 @@
         <v>46</v>
       </c>
       <c r="J242" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K242" t="s">
         <v>61</v>
@@ -14146,27 +14176,27 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B243" t="s">
         <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D243" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E243">
         <v>0</v>
       </c>
       <c r="F243" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G243" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H243" t="s">
         <v>177</v>
@@ -14175,7 +14205,7 @@
         <v>46</v>
       </c>
       <c r="J243" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K243" t="s">
         <v>61</v>
@@ -14190,27 +14220,27 @@
         <v>5143</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B244" t="s">
         <v>41</v>
       </c>
       <c r="C244" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D244" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E244">
         <v>0</v>
       </c>
       <c r="F244" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G244" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H244" t="s">
         <v>177</v>
@@ -14219,7 +14249,7 @@
         <v>46</v>
       </c>
       <c r="J244" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K244" t="s">
         <v>61</v>
@@ -14234,27 +14264,27 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B245" t="s">
         <v>41</v>
       </c>
       <c r="C245" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D245" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E245">
         <v>0</v>
       </c>
       <c r="F245" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G245" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H245" t="s">
         <v>177</v>
@@ -14263,7 +14293,7 @@
         <v>46</v>
       </c>
       <c r="J245" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="K245" t="s">
         <v>61</v>
@@ -14278,27 +14308,27 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B246" t="s">
         <v>41</v>
       </c>
       <c r="C246" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D246" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
       <c r="F246" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G246" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H246" t="s">
         <v>177</v>
@@ -14307,7 +14337,7 @@
         <v>46</v>
       </c>
       <c r="J246" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="K246" t="s">
         <v>77</v>
@@ -14322,27 +14352,27 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B247" t="s">
         <v>41</v>
       </c>
       <c r="C247" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D247" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
       <c r="F247" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G247" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H247" t="s">
         <v>177</v>
@@ -14351,7 +14381,7 @@
         <v>46</v>
       </c>
       <c r="J247" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="K247" t="s">
         <v>77</v>
@@ -14366,27 +14396,27 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B248" t="s">
         <v>41</v>
       </c>
       <c r="C248" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D248" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
       <c r="F248" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G248" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H248" t="s">
         <v>177</v>
@@ -14395,7 +14425,7 @@
         <v>46</v>
       </c>
       <c r="J248" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K248" t="s">
         <v>77</v>
@@ -14410,27 +14440,27 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B249" t="s">
         <v>41</v>
       </c>
       <c r="C249" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D249" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E249">
         <v>0</v>
       </c>
       <c r="F249" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G249" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H249" t="s">
         <v>177</v>
@@ -14439,7 +14469,7 @@
         <v>46</v>
       </c>
       <c r="J249" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="K249" t="s">
         <v>77</v>
@@ -14454,27 +14484,27 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B250" t="s">
         <v>41</v>
       </c>
       <c r="C250" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D250" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G250" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H250" t="s">
         <v>177</v>
@@ -14483,7 +14513,7 @@
         <v>46</v>
       </c>
       <c r="J250" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="K250" t="s">
         <v>77</v>
@@ -14498,27 +14528,27 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B251" t="s">
         <v>41</v>
       </c>
       <c r="C251" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D251" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E251">
         <v>0</v>
       </c>
       <c r="F251" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G251" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H251" t="s">
         <v>177</v>
@@ -14527,7 +14557,7 @@
         <v>46</v>
       </c>
       <c r="J251" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K251" t="s">
         <v>77</v>
@@ -14542,27 +14572,27 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B252" t="s">
         <v>41</v>
       </c>
       <c r="C252" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D252" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E252">
         <v>0</v>
       </c>
       <c r="F252" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G252" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H252" t="s">
         <v>177</v>
@@ -14571,7 +14601,7 @@
         <v>46</v>
       </c>
       <c r="J252" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="K252" t="s">
         <v>77</v>
@@ -14586,27 +14616,27 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B253" t="s">
         <v>41</v>
       </c>
       <c r="C253" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D253" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
       <c r="F253" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G253" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H253" t="s">
         <v>177</v>
@@ -14615,7 +14645,7 @@
         <v>46</v>
       </c>
       <c r="J253" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K253" t="s">
         <v>77</v>
@@ -14630,27 +14660,27 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B254" t="s">
         <v>41</v>
       </c>
       <c r="C254" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D254" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E254">
         <v>0</v>
       </c>
       <c r="F254" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G254" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H254" t="s">
         <v>177</v>
@@ -14659,7 +14689,7 @@
         <v>46</v>
       </c>
       <c r="J254" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K254" t="s">
         <v>77</v>
@@ -14674,27 +14704,27 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B255" t="s">
         <v>41</v>
       </c>
       <c r="C255" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D255" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E255">
         <v>0</v>
       </c>
       <c r="F255" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G255" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H255" t="s">
         <v>177</v>
@@ -14703,7 +14733,7 @@
         <v>46</v>
       </c>
       <c r="J255" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K255" t="s">
         <v>77</v>
@@ -14718,27 +14748,27 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B256" t="s">
         <v>41</v>
       </c>
       <c r="C256" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D256" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
       <c r="F256" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G256" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H256" t="s">
         <v>177</v>
@@ -14747,7 +14777,7 @@
         <v>46</v>
       </c>
       <c r="J256" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K256" t="s">
         <v>77</v>
@@ -14762,27 +14792,27 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B257" t="s">
         <v>41</v>
       </c>
       <c r="C257" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D257" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E257">
         <v>0</v>
       </c>
       <c r="F257" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G257" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H257" t="s">
         <v>177</v>
@@ -14791,7 +14821,7 @@
         <v>46</v>
       </c>
       <c r="J257" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="K257" t="s">
         <v>77</v>
@@ -14806,27 +14836,27 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B258" t="s">
         <v>41</v>
       </c>
       <c r="C258" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D258" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E258">
         <v>0</v>
       </c>
       <c r="F258" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G258" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H258" t="s">
         <v>177</v>
@@ -14835,7 +14865,7 @@
         <v>46</v>
       </c>
       <c r="J258" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="K258" t="s">
         <v>77</v>
@@ -14850,27 +14880,27 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B259" t="s">
         <v>41</v>
       </c>
       <c r="C259" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D259" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E259">
         <v>0</v>
       </c>
       <c r="F259" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G259" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H259" t="s">
         <v>177</v>
@@ -14879,7 +14909,7 @@
         <v>46</v>
       </c>
       <c r="J259" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K259" t="s">
         <v>77</v>
@@ -14894,27 +14924,27 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B260" t="s">
         <v>41</v>
       </c>
       <c r="C260" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D260" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E260">
         <v>0</v>
       </c>
       <c r="F260" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G260" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H260" t="s">
         <v>177</v>
@@ -14923,7 +14953,7 @@
         <v>46</v>
       </c>
       <c r="J260" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K260" t="s">
         <v>77</v>
@@ -14938,27 +14968,27 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B261" t="s">
         <v>41</v>
       </c>
       <c r="C261" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D261" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E261">
         <v>0</v>
       </c>
       <c r="F261" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G261" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H261" t="s">
         <v>177</v>
@@ -14967,7 +14997,7 @@
         <v>46</v>
       </c>
       <c r="J261" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="K261" t="s">
         <v>77</v>
@@ -14982,27 +15012,27 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B262" t="s">
         <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D262" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
       <c r="F262" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G262" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H262" t="s">
         <v>177</v>
@@ -15011,7 +15041,7 @@
         <v>46</v>
       </c>
       <c r="J262" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="K262" t="s">
         <v>77</v>
@@ -15026,27 +15056,27 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B263" t="s">
         <v>41</v>
       </c>
       <c r="C263" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D263" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E263">
         <v>0</v>
       </c>
       <c r="F263" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G263" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H263" t="s">
         <v>177</v>
@@ -15055,7 +15085,7 @@
         <v>46</v>
       </c>
       <c r="J263" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K263" t="s">
         <v>77</v>
@@ -15070,27 +15100,27 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B264" t="s">
         <v>41</v>
       </c>
       <c r="C264" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D264" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
       <c r="F264" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G264" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H264" t="s">
         <v>177</v>
@@ -15099,7 +15129,7 @@
         <v>46</v>
       </c>
       <c r="J264" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="K264" t="s">
         <v>77</v>
@@ -15114,27 +15144,27 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B265" t="s">
         <v>41</v>
       </c>
       <c r="C265" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D265" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E265">
         <v>0</v>
       </c>
       <c r="F265" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G265" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H265" t="s">
         <v>177</v>
@@ -15143,7 +15173,7 @@
         <v>46</v>
       </c>
       <c r="J265" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="K265" t="s">
         <v>77</v>
@@ -15158,27 +15188,27 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B266" t="s">
         <v>41</v>
       </c>
       <c r="C266" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D266" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E266">
         <v>0</v>
       </c>
       <c r="F266" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G266" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H266" t="s">
         <v>177</v>
@@ -15187,7 +15217,7 @@
         <v>46</v>
       </c>
       <c r="J266" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="K266" t="s">
         <v>55</v>
@@ -15202,27 +15232,27 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B267" t="s">
         <v>41</v>
       </c>
       <c r="C267" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D267" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E267">
         <v>0</v>
       </c>
       <c r="F267" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G267" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H267" t="s">
         <v>177</v>
@@ -15231,7 +15261,7 @@
         <v>46</v>
       </c>
       <c r="J267" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="K267" t="s">
         <v>77</v>
@@ -15246,27 +15276,27 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B268" t="s">
         <v>41</v>
       </c>
       <c r="C268" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D268" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E268">
         <v>0</v>
       </c>
       <c r="F268" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G268" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H268" t="s">
         <v>177</v>
@@ -15275,7 +15305,7 @@
         <v>46</v>
       </c>
       <c r="J268" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="K268" t="s">
         <v>55</v>
@@ -15290,27 +15320,27 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B269" t="s">
         <v>41</v>
       </c>
       <c r="C269" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D269" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E269">
         <v>0</v>
       </c>
       <c r="F269" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G269" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H269" t="s">
         <v>177</v>
@@ -15319,7 +15349,7 @@
         <v>46</v>
       </c>
       <c r="J269" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="K269" t="s">
         <v>55</v>
@@ -15334,27 +15364,27 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B270" t="s">
         <v>41</v>
       </c>
       <c r="C270" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D270" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E270">
         <v>0</v>
       </c>
       <c r="F270" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G270" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H270" t="s">
         <v>177</v>
@@ -15363,7 +15393,7 @@
         <v>46</v>
       </c>
       <c r="J270" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="K270" t="s">
         <v>55</v>
@@ -15378,27 +15408,27 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B271" t="s">
         <v>41</v>
       </c>
       <c r="C271" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D271" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E271">
         <v>0</v>
       </c>
       <c r="F271" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G271" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H271" t="s">
         <v>177</v>
@@ -15407,7 +15437,7 @@
         <v>46</v>
       </c>
       <c r="J271" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="K271" t="s">
         <v>55</v>
@@ -15422,27 +15452,27 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B272" t="s">
         <v>41</v>
       </c>
       <c r="C272" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D272" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E272">
         <v>0</v>
       </c>
       <c r="F272" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G272" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H272" t="s">
         <v>177</v>
@@ -15451,7 +15481,7 @@
         <v>46</v>
       </c>
       <c r="J272" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K272" t="s">
         <v>55</v>
@@ -15466,27 +15496,27 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="273" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B273" t="s">
         <v>41</v>
       </c>
       <c r="C273" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D273" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E273">
         <v>0</v>
       </c>
       <c r="F273" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G273" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H273" t="s">
         <v>177</v>
@@ -15495,7 +15525,7 @@
         <v>46</v>
       </c>
       <c r="J273" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="K273" t="s">
         <v>55</v>
@@ -15510,27 +15540,27 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="274" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B274" t="s">
         <v>41</v>
       </c>
       <c r="C274" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D274" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E274">
         <v>0</v>
       </c>
       <c r="F274" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G274" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H274" t="s">
         <v>177</v>
@@ -15539,7 +15569,7 @@
         <v>46</v>
       </c>
       <c r="J274" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K274" t="s">
         <v>55</v>
@@ -15554,27 +15584,27 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="275" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B275" t="s">
         <v>41</v>
       </c>
       <c r="C275" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D275" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
       <c r="F275" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G275" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H275" t="s">
         <v>177</v>
@@ -15583,7 +15613,7 @@
         <v>46</v>
       </c>
       <c r="J275" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K275" t="s">
         <v>55</v>
@@ -15598,27 +15628,27 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="276" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B276" t="s">
         <v>41</v>
       </c>
       <c r="C276" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D276" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E276">
         <v>0</v>
       </c>
       <c r="F276" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G276" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H276" t="s">
         <v>177</v>
@@ -15627,7 +15657,7 @@
         <v>46</v>
       </c>
       <c r="J276" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="K276" t="s">
         <v>55</v>
@@ -15642,13 +15672,13 @@
         <v>2278</v>
       </c>
       <c r="O276" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="P276">
         <v>2</v>
       </c>
       <c r="Q276" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="R276" t="s">
         <v>27</v>
@@ -15666,27 +15696,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B277" t="s">
         <v>41</v>
       </c>
       <c r="C277" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D277" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E277">
         <v>0</v>
       </c>
       <c r="F277" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G277" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H277" t="s">
         <v>177</v>
@@ -15695,7 +15725,7 @@
         <v>46</v>
       </c>
       <c r="J277" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="K277" t="s">
         <v>55</v>
@@ -15710,27 +15740,27 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="278" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B278" t="s">
         <v>41</v>
       </c>
       <c r="C278" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D278" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E278">
         <v>0</v>
       </c>
       <c r="F278" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G278" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H278" t="s">
         <v>177</v>
@@ -15739,7 +15769,7 @@
         <v>46</v>
       </c>
       <c r="J278" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K278" t="s">
         <v>55</v>
@@ -15754,27 +15784,27 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="279" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B279" t="s">
         <v>41</v>
       </c>
       <c r="C279" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D279" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E279">
         <v>0</v>
       </c>
       <c r="F279" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G279" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H279" t="s">
         <v>177</v>
@@ -15783,7 +15813,7 @@
         <v>46</v>
       </c>
       <c r="J279" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="K279" t="s">
         <v>55</v>
@@ -15798,27 +15828,27 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="280" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B280" t="s">
         <v>41</v>
       </c>
       <c r="C280" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D280" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E280">
         <v>0</v>
       </c>
       <c r="F280" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G280" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H280" t="s">
         <v>177</v>
@@ -15827,7 +15857,7 @@
         <v>46</v>
       </c>
       <c r="J280" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="K280" t="s">
         <v>55</v>
@@ -15842,27 +15872,27 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="281" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B281" t="s">
         <v>41</v>
       </c>
       <c r="C281" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D281" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E281">
         <v>0</v>
       </c>
       <c r="F281" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G281" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="H281" t="s">
         <v>177</v>
@@ -15871,7 +15901,7 @@
         <v>46</v>
       </c>
       <c r="J281" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="K281" t="s">
         <v>55</v>
@@ -15886,7 +15916,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="282" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -15954,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>132</v>
       </c>
@@ -16022,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>132</v>
       </c>
@@ -16090,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>132</v>
       </c>
@@ -16134,7 +16164,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="286" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>132</v>
       </c>
@@ -16202,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>132</v>
       </c>
@@ -16270,7 +16300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>132</v>
       </c>
@@ -16338,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>132</v>
       </c>
@@ -16406,7 +16436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>22</v>
       </c>
@@ -16441,7 +16471,7 @@
         <v>1316124</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>30</v>
       </c>
@@ -16476,7 +16506,7 @@
         <v>1244640</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>35</v>
       </c>
@@ -16511,7 +16541,7 @@
         <v>1017049</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>80</v>
       </c>
@@ -16546,7 +16576,7 @@
         <v>777303</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>85</v>
       </c>
@@ -16581,7 +16611,7 @@
         <v>685915</v>
       </c>
     </row>
-    <row r="295" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>90</v>
       </c>
@@ -16616,7 +16646,7 @@
         <v>760340</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>95</v>
       </c>
@@ -16651,7 +16681,7 @@
         <v>15082</v>
       </c>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>332</v>
       </c>
@@ -16680,91 +16710,97 @@
         <v>336</v>
       </c>
     </row>
-    <row r="298" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>337</v>
+        <v>528</v>
       </c>
       <c r="B298" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C298" t="s">
-        <v>338</v>
+        <v>515</v>
       </c>
       <c r="D298" t="s">
-        <v>339</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298" t="s">
-        <v>340</v>
-      </c>
-      <c r="G298" t="s">
-        <v>27</v>
-      </c>
-      <c r="H298" t="s">
-        <v>27</v>
+        <v>516</v>
+      </c>
+      <c r="F298">
+        <v>2022</v>
+      </c>
+      <c r="H298">
+        <v>54</v>
       </c>
       <c r="I298" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="299" spans="1:22" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="M298">
+        <v>7.1</v>
+      </c>
+      <c r="N298">
+        <v>219751</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>341</v>
+        <v>526</v>
       </c>
       <c r="B299" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C299" t="s">
-        <v>342</v>
+        <v>517</v>
       </c>
       <c r="D299" t="s">
-        <v>343</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299" t="s">
-        <v>344</v>
-      </c>
-      <c r="G299" t="s">
-        <v>27</v>
-      </c>
-      <c r="H299" t="s">
-        <v>27</v>
+        <v>518</v>
+      </c>
+      <c r="F299">
+        <v>2023</v>
+      </c>
+      <c r="H299">
+        <v>261</v>
       </c>
       <c r="I299" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="300" spans="1:22" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+      <c r="M299">
+        <v>7.6</v>
+      </c>
+      <c r="N299">
+        <v>90009</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B300" t="s">
         <v>23</v>
       </c>
       <c r="C300" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D300" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="E300">
         <v>0</v>
       </c>
       <c r="F300" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G300" t="s">
         <v>27</v>
       </c>
       <c r="H300" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="I300" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M300">
         <v>7.9</v>
@@ -16773,30 +16809,30 @@
         <v>906050</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B301" t="s">
         <v>23</v>
       </c>
       <c r="C301" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D301" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E301">
         <v>0</v>
       </c>
       <c r="F301" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G301" t="s">
         <v>27</v>
       </c>
       <c r="H301" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="I301" t="s">
         <v>29</v>
@@ -16808,30 +16844,30 @@
         <v>608814</v>
       </c>
     </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B302" t="s">
         <v>23</v>
       </c>
       <c r="C302" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D302" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E302">
         <v>0</v>
       </c>
       <c r="F302" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G302" t="s">
         <v>27</v>
       </c>
       <c r="H302" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I302" t="s">
         <v>29</v>
@@ -16843,24 +16879,24 @@
         <v>426389</v>
       </c>
     </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B303" t="s">
         <v>23</v>
       </c>
       <c r="C303" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="D303" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E303">
         <v>0</v>
       </c>
       <c r="F303" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G303" t="s">
         <v>27</v>
@@ -16869,7 +16905,7 @@
         <v>106</v>
       </c>
       <c r="I303" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M303">
         <v>7.8</v>
@@ -16878,33 +16914,33 @@
         <v>602504</v>
       </c>
     </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B304" t="s">
         <v>23</v>
       </c>
       <c r="C304" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D304" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E304">
         <v>0</v>
       </c>
       <c r="F304" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G304" t="s">
         <v>27</v>
       </c>
       <c r="H304" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="I304" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M304">
         <v>6.9</v>
@@ -16912,6 +16948,160 @@
       <c r="N304">
         <v>328892</v>
       </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>527</v>
+      </c>
+      <c r="B305" t="s">
+        <v>41</v>
+      </c>
+      <c r="C305" t="s">
+        <v>519</v>
+      </c>
+      <c r="D305" t="s">
+        <v>520</v>
+      </c>
+      <c r="F305">
+        <v>2022</v>
+      </c>
+      <c r="H305">
+        <v>40</v>
+      </c>
+      <c r="I305" t="s">
+        <v>336</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="M305">
+        <v>8.4</v>
+      </c>
+      <c r="N305">
+        <v>153453</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>525</v>
+      </c>
+      <c r="B306" t="s">
+        <v>41</v>
+      </c>
+      <c r="C306" t="s">
+        <v>521</v>
+      </c>
+      <c r="D306" t="s">
+        <v>522</v>
+      </c>
+      <c r="F306">
+        <v>2019</v>
+      </c>
+      <c r="I306" t="s">
+        <v>29</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="M306">
+        <v>8.5</v>
+      </c>
+      <c r="N306">
+        <v>233000</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>525</v>
+      </c>
+      <c r="B307" t="s">
+        <v>41</v>
+      </c>
+      <c r="C307" t="s">
+        <v>521</v>
+      </c>
+      <c r="D307" t="s">
+        <v>522</v>
+      </c>
+      <c r="F307">
+        <v>2020</v>
+      </c>
+      <c r="I307" t="s">
+        <v>29</v>
+      </c>
+      <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="M307">
+        <v>9</v>
+      </c>
+      <c r="N307">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>525</v>
+      </c>
+      <c r="B308" t="s">
+        <v>41</v>
+      </c>
+      <c r="C308" t="s">
+        <v>521</v>
+      </c>
+      <c r="D308" t="s">
+        <v>522</v>
+      </c>
+      <c r="F308">
+        <v>2023</v>
+      </c>
+      <c r="I308" t="s">
+        <v>29</v>
+      </c>
+      <c r="K308">
+        <v>3</v>
+      </c>
+      <c r="M308">
+        <v>7.7</v>
+      </c>
+      <c r="N308">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>529</v>
+      </c>
+      <c r="B309" t="s">
+        <v>41</v>
+      </c>
+      <c r="C309" t="s">
+        <v>523</v>
+      </c>
+      <c r="D309" t="s">
+        <v>524</v>
+      </c>
+      <c r="F309">
+        <v>2021</v>
+      </c>
+      <c r="H309">
+        <v>38</v>
+      </c>
+      <c r="I309" t="s">
+        <v>414</v>
+      </c>
+      <c r="K309">
+        <v>1</v>
+      </c>
+      <c r="M309">
+        <v>7.2</v>
+      </c>
+      <c r="N309">
+        <v>178760</v>
+      </c>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L322" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:V304" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -16919,7 +17109,7 @@
       <sortCondition ref="J1:J304"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:J308 J310:J1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
